--- a/biology/Botanique/Grande_astrance/Grande_astrance.xlsx
+++ b/biology/Botanique/Grande_astrance/Grande_astrance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrantia major
 La Grande astrance (Astrantia major), encore appelée Grande radiaire, est une espèce de plante herbacée vivace de la famille des Apiaceae (Ombellifères).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante glabre, haute de 30 à 90 cm, à tige dressée, simple ou à rameaux opposés, portant des feuilles luisantes palmatipartites. Les fleurs blanches ou rosées, réunies en ombelles simples, sont portées par des pédicelles fins et allongés.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : ombelle
@@ -580,7 +596,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce de demi-ombre, hygrosciaphile, oligotrophiles, neutrocline à large amplitude.
 Phytosociologie: mégaphorbiaies (Adenostylion alliariae) subalpines à montagnardes, forêts ripicoles occidentales, hêtraies-sapinières (Abieti-fagenalia)
@@ -614,7 +632,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est protégée en France dans le Limousin (article 1). Elle est protégée en Andorre.
 </t>
